--- a/src/predicciones/holt_winters/producto_89.xlsx
+++ b/src/predicciones/holt_winters/producto_89.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,13 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C184"/>
+  <dimension ref="A1:C214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,2016 +404,2346 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44929</v>
       </c>
       <c r="B2">
-        <v>1.83719579828026</v>
+        <v>2.706812451824383</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44930</v>
       </c>
       <c r="B3">
-        <v>0.89788193414317</v>
+        <v>1.740499673478994</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44931</v>
       </c>
       <c r="B4">
-        <v>0.992550748145711</v>
+        <v>1.49819698602157</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44934</v>
       </c>
       <c r="B5">
-        <v>1.052074897230448</v>
+        <v>1.651299928524424</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44936</v>
       </c>
       <c r="B6">
-        <v>1.076511867822862</v>
+        <v>1.885686230736938</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44937</v>
       </c>
       <c r="B7">
-        <v>1.847509918671823</v>
+        <v>2.071029795521865</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44939</v>
       </c>
       <c r="B8">
-        <v>1.293493437999832</v>
+        <v>2.072885298348142</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44940</v>
       </c>
       <c r="B9">
-        <v>1.840196307971661</v>
+        <v>2.704618264378415</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44942</v>
       </c>
       <c r="B10">
-        <v>0.9008824438345705</v>
+        <v>1.738305486033026</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44945</v>
       </c>
       <c r="B11">
-        <v>0.9955512578371113</v>
+        <v>1.496002798575602</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44946</v>
       </c>
       <c r="B12">
-        <v>1.055075406921848</v>
+        <v>1.649105741078456</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44948</v>
       </c>
       <c r="B13">
-        <v>1.079512377514263</v>
+        <v>1.88349204329097</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44952</v>
       </c>
       <c r="B14">
-        <v>1.850510428363224</v>
+        <v>2.068835608075897</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44953</v>
       </c>
       <c r="B15">
-        <v>1.296493947691232</v>
+        <v>2.070691110902174</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44954</v>
       </c>
       <c r="B16">
-        <v>1.843196817663062</v>
+        <v>2.702424076932447</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44955</v>
       </c>
       <c r="B17">
-        <v>0.9038829535259708</v>
+        <v>1.736111298587058</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>44956</v>
       </c>
       <c r="B18">
-        <v>0.9985517675285116</v>
+        <v>1.493808611129634</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>44958</v>
       </c>
       <c r="B19">
-        <v>1.058075916613249</v>
+        <v>1.646911553632488</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>44960</v>
       </c>
       <c r="B20">
-        <v>1.082512887205663</v>
+        <v>1.881297855845002</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>44961</v>
       </c>
       <c r="B21">
-        <v>1.853510938054624</v>
+        <v>2.066641420629929</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>44962</v>
       </c>
       <c r="B22">
-        <v>1.299494457382633</v>
+        <v>2.068496923456206</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>44968</v>
       </c>
       <c r="B23">
-        <v>1.846197327354462</v>
+        <v>2.700229889486478</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>44970</v>
       </c>
       <c r="B24">
-        <v>0.9068834632173711</v>
+        <v>1.73391711114109</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>44971</v>
       </c>
       <c r="B25">
-        <v>1.001552277219912</v>
+        <v>1.491614423683666</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>44972</v>
       </c>
       <c r="B26">
-        <v>1.061076426304649</v>
+        <v>1.64471736618652</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>44973</v>
       </c>
       <c r="B27">
-        <v>1.085513396897064</v>
+        <v>1.879103668399034</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>44977</v>
       </c>
       <c r="B28">
-        <v>1.856511447746025</v>
+        <v>2.064447233183961</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>44978</v>
       </c>
       <c r="B29">
-        <v>1.302494967074033</v>
+        <v>2.066302736010238</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>44979</v>
       </c>
       <c r="B30">
-        <v>1.849197837045862</v>
+        <v>2.698035702040511</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>44980</v>
       </c>
       <c r="B31">
-        <v>0.9098839729087717</v>
+        <v>1.731722923695122</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>44981</v>
       </c>
       <c r="B32">
-        <v>1.004552786911312</v>
+        <v>1.489420236237698</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>44982</v>
       </c>
       <c r="B33">
-        <v>1.06407693599605</v>
+        <v>1.642523178740552</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>44985</v>
       </c>
       <c r="B34">
-        <v>1.088513906588464</v>
+        <v>1.876909480953066</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>44986</v>
       </c>
       <c r="B35">
-        <v>1.859511957437425</v>
+        <v>2.062253045737993</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>44989</v>
       </c>
       <c r="B36">
-        <v>1.305495476765433</v>
+        <v>2.06410854856427</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>44991</v>
       </c>
       <c r="B37">
-        <v>1.852198346737262</v>
+        <v>2.695841514594543</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>44992</v>
       </c>
       <c r="B38">
-        <v>0.912884482600172</v>
+        <v>1.729528736249154</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>44993</v>
       </c>
       <c r="B39">
-        <v>1.007553296602713</v>
+        <v>1.48722604879173</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>44994</v>
       </c>
       <c r="B40">
-        <v>1.06707744568745</v>
+        <v>1.640328991294584</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>44995</v>
       </c>
       <c r="B41">
-        <v>1.091514416279864</v>
+        <v>1.874715293507098</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>44997</v>
       </c>
       <c r="B42">
-        <v>1.862512467128825</v>
+        <v>2.060058858292025</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>44999</v>
       </c>
       <c r="B43">
-        <v>1.308495986456834</v>
+        <v>2.061914361118302</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45000</v>
       </c>
       <c r="B44">
-        <v>1.855198856428663</v>
+        <v>2.693647327148575</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45004</v>
       </c>
       <c r="B45">
-        <v>0.9158849922915723</v>
+        <v>1.727334548803186</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45008</v>
       </c>
       <c r="B46">
-        <v>1.010553806294113</v>
+        <v>1.485031861345762</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45010</v>
       </c>
       <c r="B47">
-        <v>1.07007795537885</v>
+        <v>1.638134803848616</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45013</v>
       </c>
       <c r="B48">
-        <v>1.094514925971265</v>
+        <v>1.87252110606113</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45014</v>
       </c>
       <c r="B49">
-        <v>1.865512976820226</v>
+        <v>2.057864670846057</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45015</v>
       </c>
       <c r="B50">
-        <v>1.311496496148234</v>
+        <v>2.059720173672334</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45016</v>
       </c>
       <c r="B51">
-        <v>1.858199366120063</v>
+        <v>2.691453139702607</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45017</v>
       </c>
       <c r="B52">
-        <v>0.9188855019829726</v>
+        <v>1.725140361357218</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45018</v>
       </c>
       <c r="B53">
-        <v>1.013554315985514</v>
+        <v>1.482837673899794</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45019</v>
       </c>
       <c r="B54">
-        <v>1.073078465070251</v>
+        <v>1.635940616402648</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45021</v>
       </c>
       <c r="B55">
-        <v>1.097515435662665</v>
+        <v>1.870326918615162</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45022</v>
       </c>
       <c r="B56">
-        <v>1.868513486511626</v>
+        <v>2.055670483400089</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45026</v>
       </c>
       <c r="B57">
-        <v>1.314497005839634</v>
+        <v>2.057525986226366</v>
       </c>
       <c r="C57">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45028</v>
       </c>
       <c r="B58">
-        <v>1.861199875811464</v>
+        <v>2.689258952256639</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45031</v>
       </c>
       <c r="B59">
-        <v>0.9218860116743731</v>
+        <v>1.72294617391125</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45033</v>
       </c>
       <c r="B60">
-        <v>1.016554825676914</v>
+        <v>1.480643486453826</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45036</v>
       </c>
       <c r="B61">
-        <v>1.076078974761651</v>
+        <v>1.63374642895668</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45037</v>
       </c>
       <c r="B62">
-        <v>1.100515945354065</v>
+        <v>1.868132731169194</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45041</v>
       </c>
       <c r="B63">
-        <v>1.871513996203026</v>
+        <v>2.053476295954121</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45045</v>
       </c>
       <c r="B64">
-        <v>1.317497515531035</v>
+        <v>2.055331798780398</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45046</v>
       </c>
       <c r="B65">
-        <v>1.864200385502864</v>
+        <v>2.687064764810671</v>
       </c>
       <c r="C65">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45051</v>
       </c>
       <c r="B66">
-        <v>0.9248865213657734</v>
+        <v>1.720751986465282</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45056</v>
       </c>
       <c r="B67">
-        <v>1.019555335368314</v>
+        <v>1.478449299007858</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45057</v>
       </c>
       <c r="B68">
-        <v>1.079079484453051</v>
+        <v>1.631552241510712</v>
       </c>
       <c r="C68">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45059</v>
       </c>
       <c r="B69">
-        <v>1.103516455045466</v>
+        <v>1.865938543723226</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
+      <c r="A70" s="2">
+        <v>45064</v>
       </c>
       <c r="B70">
-        <v>1.874514505894427</v>
+        <v>2.051282108508153</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
+      <c r="A71" s="2">
+        <v>45065</v>
       </c>
       <c r="B71">
-        <v>1.320498025222435</v>
+        <v>2.05313761133443</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
+      <c r="A72" s="2">
+        <v>45066</v>
       </c>
       <c r="B72">
-        <v>1.867200895194264</v>
+        <v>2.684870577364703</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
+      <c r="A73" s="2">
+        <v>45069</v>
       </c>
       <c r="B73">
-        <v>0.9278870310571737</v>
+        <v>1.718557799019314</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
+      <c r="A74" s="2">
+        <v>45072</v>
       </c>
       <c r="B74">
-        <v>1.022555845059715</v>
+        <v>1.47625511156189</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
+      <c r="A75" s="2">
+        <v>45073</v>
       </c>
       <c r="B75">
-        <v>1.082079994144452</v>
+        <v>1.629358054064744</v>
       </c>
       <c r="C75">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
+      <c r="A76" s="2">
+        <v>45074</v>
       </c>
       <c r="B76">
-        <v>1.106516964736866</v>
+        <v>1.863744356277258</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
+      <c r="A77" s="2">
+        <v>45077</v>
       </c>
       <c r="B77">
-        <v>1.877515015585827</v>
+        <v>2.049087921062185</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
+      <c r="A78" s="2">
+        <v>45080</v>
       </c>
       <c r="B78">
-        <v>1.323498534913836</v>
+        <v>2.050943423888462</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
+      <c r="A79" s="2">
+        <v>45081</v>
       </c>
       <c r="B79">
-        <v>1.870201404885665</v>
+        <v>2.682676389918735</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
+      <c r="A80" s="2">
+        <v>45083</v>
       </c>
       <c r="B80">
-        <v>0.9308875407485743</v>
+        <v>1.716363611573346</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
+      <c r="A81" s="2">
+        <v>45084</v>
       </c>
       <c r="B81">
-        <v>1.025556354751115</v>
+        <v>1.474060924115922</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
+      <c r="A82" s="2">
+        <v>45086</v>
       </c>
       <c r="B82">
-        <v>1.085080503835852</v>
+        <v>1.627163866618776</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
+      <c r="A83" s="2">
+        <v>45089</v>
       </c>
       <c r="B83">
-        <v>1.109517474428267</v>
+        <v>1.86155016883129</v>
       </c>
       <c r="C83">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
+      <c r="A84" s="2">
+        <v>45090</v>
       </c>
       <c r="B84">
-        <v>1.880515525277227</v>
+        <v>2.046893733616217</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
+      <c r="A85" s="2">
+        <v>45093</v>
       </c>
       <c r="B85">
-        <v>1.326499044605236</v>
+        <v>2.048749236442494</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
+      <c r="A86" s="2">
+        <v>45096</v>
       </c>
       <c r="B86">
-        <v>1.873201914577065</v>
+        <v>2.680482202472767</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>85</v>
+      <c r="A87" s="2">
+        <v>45100</v>
       </c>
       <c r="B87">
-        <v>0.9338880504399746</v>
+        <v>1.714169424127378</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>86</v>
+      <c r="A88" s="2">
+        <v>45101</v>
       </c>
       <c r="B88">
-        <v>1.028556864442515</v>
+        <v>1.471866736669954</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>87</v>
+      <c r="A89" s="2">
+        <v>45102</v>
       </c>
       <c r="B89">
-        <v>1.088081013527253</v>
+        <v>1.624969679172808</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>88</v>
+      <c r="A90" s="2">
+        <v>45106</v>
       </c>
       <c r="B90">
-        <v>1.112517984119667</v>
+        <v>1.859355981385322</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>89</v>
+      <c r="A91" s="2">
+        <v>45108</v>
       </c>
       <c r="B91">
-        <v>1.883516034968628</v>
+        <v>2.044699546170249</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>90</v>
+      <c r="A92" s="2">
+        <v>45109</v>
       </c>
       <c r="B92">
-        <v>1.329499554296636</v>
+        <v>2.046555048996526</v>
       </c>
       <c r="C92">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>91</v>
+      <c r="A93" s="2">
+        <v>45111</v>
       </c>
       <c r="B93">
-        <v>1.876202424268465</v>
+        <v>2.678288015026799</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>92</v>
+      <c r="A94" s="2">
+        <v>45112</v>
       </c>
       <c r="B94">
-        <v>0.9368885601313749</v>
+        <v>1.71197523668141</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>93</v>
+      <c r="A95" s="2">
+        <v>45113</v>
       </c>
       <c r="B95">
-        <v>1.031557374133916</v>
+        <v>1.469672549223986</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>94</v>
+      <c r="A96" s="2">
+        <v>45115</v>
       </c>
       <c r="B96">
-        <v>1.091081523218653</v>
+        <v>1.62277549172684</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>95</v>
+      <c r="A97" s="2">
+        <v>45117</v>
       </c>
       <c r="B97">
-        <v>1.115518493811067</v>
+        <v>1.857161793939354</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="1">
-        <v>96</v>
+      <c r="A98" s="2">
+        <v>45119</v>
       </c>
       <c r="B98">
-        <v>1.886516544660028</v>
+        <v>2.042505358724281</v>
       </c>
       <c r="C98">
         <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="1">
-        <v>97</v>
+      <c r="A99" s="2">
+        <v>45120</v>
       </c>
       <c r="B99">
-        <v>1.332500063988037</v>
+        <v>2.044360861550558</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>98</v>
+      <c r="A100" s="2">
+        <v>45122</v>
       </c>
       <c r="B100">
-        <v>1.879202933959866</v>
+        <v>2.676093827580831</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>99</v>
+      <c r="A101" s="2">
+        <v>45124</v>
       </c>
       <c r="B101">
-        <v>0.9398890698227754</v>
+        <v>1.709781049235442</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <v>100</v>
+      <c r="A102" s="2">
+        <v>45125</v>
       </c>
       <c r="B102">
-        <v>1.034557883825316</v>
+        <v>1.467478361778018</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="1">
-        <v>101</v>
+      <c r="A103" s="2">
+        <v>45126</v>
       </c>
       <c r="B103">
-        <v>1.094082032910053</v>
+        <v>1.620581304280872</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="1">
-        <v>102</v>
+      <c r="A104" s="2">
+        <v>45127</v>
       </c>
       <c r="B104">
-        <v>1.118519003502468</v>
+        <v>1.854967606493386</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="1">
-        <v>103</v>
+      <c r="A105" s="2">
+        <v>45130</v>
       </c>
       <c r="B105">
-        <v>1.889517054351429</v>
+        <v>2.040311171278313</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="1">
-        <v>104</v>
+      <c r="A106" s="2">
+        <v>45133</v>
       </c>
       <c r="B106">
-        <v>1.335500573679437</v>
+        <v>2.04216667410459</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="1">
-        <v>105</v>
+      <c r="A107" s="2">
+        <v>45135</v>
       </c>
       <c r="B107">
-        <v>1.882203443651266</v>
+        <v>2.673899640134863</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="1">
-        <v>106</v>
+      <c r="A108" s="2">
+        <v>45137</v>
       </c>
       <c r="B108">
-        <v>0.9428895795141757</v>
+        <v>1.707586861789474</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="1">
-        <v>107</v>
+      <c r="A109" s="2">
+        <v>45139</v>
       </c>
       <c r="B109">
-        <v>1.037558393516717</v>
+        <v>1.46528417433205</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="1">
-        <v>108</v>
+      <c r="A110" s="2">
+        <v>45141</v>
       </c>
       <c r="B110">
-        <v>1.097082542601454</v>
+        <v>1.618387116834904</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="1">
-        <v>109</v>
+      <c r="A111" s="2">
+        <v>45142</v>
       </c>
       <c r="B111">
-        <v>1.121519513193868</v>
+        <v>1.852773419047418</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="1">
-        <v>110</v>
+      <c r="A112" s="2">
+        <v>45143</v>
       </c>
       <c r="B112">
-        <v>1.892517564042829</v>
+        <v>2.038116983832345</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="1">
-        <v>111</v>
+      <c r="A113" s="2">
+        <v>45144</v>
       </c>
       <c r="B113">
-        <v>1.338501083370838</v>
+        <v>2.039972486658622</v>
       </c>
       <c r="C113">
         <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="1">
-        <v>112</v>
+      <c r="A114" s="2">
+        <v>45148</v>
       </c>
       <c r="B114">
-        <v>1.885203953342667</v>
+        <v>2.671705452688895</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="1">
-        <v>113</v>
+      <c r="A115" s="2">
+        <v>45151</v>
       </c>
       <c r="B115">
-        <v>0.945890089205576</v>
+        <v>1.705392674343506</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="1">
-        <v>114</v>
+      <c r="A116" s="2">
+        <v>45154</v>
       </c>
       <c r="B116">
-        <v>1.040558903208117</v>
+        <v>1.463089986886082</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="1">
-        <v>115</v>
+      <c r="A117" s="2">
+        <v>45155</v>
       </c>
       <c r="B117">
-        <v>1.100083052292854</v>
+        <v>1.616192929388936</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="1">
-        <v>116</v>
+      <c r="A118" s="2">
+        <v>45156</v>
       </c>
       <c r="B118">
-        <v>1.124520022885269</v>
+        <v>1.85057923160145</v>
       </c>
       <c r="C118">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="1">
-        <v>117</v>
+      <c r="A119" s="2">
+        <v>45157</v>
       </c>
       <c r="B119">
-        <v>1.895518073734229</v>
+        <v>2.035922796386377</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="1">
-        <v>118</v>
+      <c r="A120" s="2">
+        <v>45158</v>
       </c>
       <c r="B120">
-        <v>1.341501593062238</v>
+        <v>2.037778299212654</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="1">
-        <v>119</v>
+      <c r="A121" s="2">
+        <v>45159</v>
       </c>
       <c r="B121">
-        <v>1.888204463034067</v>
+        <v>2.669511265242927</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="1">
-        <v>120</v>
+      <c r="A122" s="2">
+        <v>45160</v>
       </c>
       <c r="B122">
-        <v>0.9488905988969764</v>
+        <v>1.703198486897538</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="1">
-        <v>121</v>
+      <c r="A123" s="2">
+        <v>45161</v>
       </c>
       <c r="B123">
-        <v>1.043559412899517</v>
+        <v>1.460895799440114</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="1">
-        <v>122</v>
+      <c r="A124" s="2">
+        <v>45163</v>
       </c>
       <c r="B124">
-        <v>1.103083561984255</v>
+        <v>1.613998741942968</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="1">
-        <v>123</v>
+      <c r="A125" s="2">
+        <v>45164</v>
       </c>
       <c r="B125">
-        <v>1.127520532576669</v>
+        <v>1.848385044155482</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="1">
-        <v>124</v>
+      <c r="A126" s="2">
+        <v>45169</v>
       </c>
       <c r="B126">
-        <v>1.89851858342563</v>
+        <v>2.033728608940409</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="1">
-        <v>125</v>
+      <c r="A127" s="2">
+        <v>45170</v>
       </c>
       <c r="B127">
-        <v>1.344502102753638</v>
+        <v>2.035584111766686</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="1">
-        <v>126</v>
+      <c r="A128" s="2">
+        <v>45172</v>
       </c>
       <c r="B128">
-        <v>1.891204972725467</v>
+        <v>2.667317077796959</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="1">
-        <v>127</v>
+      <c r="A129" s="2">
+        <v>45175</v>
       </c>
       <c r="B129">
-        <v>0.9518911085883769</v>
+        <v>1.70100429945157</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="1">
-        <v>128</v>
+      <c r="A130" s="2">
+        <v>45176</v>
       </c>
       <c r="B130">
-        <v>1.046559922590918</v>
+        <v>1.458701611994146</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="1">
-        <v>129</v>
+      <c r="A131" s="2">
+        <v>45178</v>
       </c>
       <c r="B131">
-        <v>1.106084071675655</v>
+        <v>1.611804554497</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="1">
-        <v>130</v>
+      <c r="A132" s="2">
+        <v>45181</v>
       </c>
       <c r="B132">
-        <v>1.130521042268069</v>
+        <v>1.846190856709514</v>
       </c>
       <c r="C132">
         <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="1">
-        <v>131</v>
+      <c r="A133" s="2">
+        <v>45183</v>
       </c>
       <c r="B133">
-        <v>1.90151909311703</v>
+        <v>2.031534421494441</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="1">
-        <v>132</v>
+      <c r="A134" s="2">
+        <v>45184</v>
       </c>
       <c r="B134">
-        <v>1.347502612445039</v>
+        <v>2.033389924320718</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="1">
-        <v>133</v>
+      <c r="A135" s="2">
+        <v>45186</v>
       </c>
       <c r="B135">
-        <v>1.894205482416868</v>
+        <v>2.665122890350991</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="1">
-        <v>134</v>
+      <c r="A136" s="2">
+        <v>45189</v>
       </c>
       <c r="B136">
-        <v>0.9548916182797772</v>
+        <v>1.698810112005603</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="1">
-        <v>135</v>
+      <c r="A137" s="2">
+        <v>45198</v>
       </c>
       <c r="B137">
-        <v>1.049560432282318</v>
+        <v>1.456507424548178</v>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="1">
-        <v>136</v>
+      <c r="A138" s="2">
+        <v>45200</v>
       </c>
       <c r="B138">
-        <v>1.109084581367055</v>
+        <v>1.609610367051032</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="1">
-        <v>137</v>
+      <c r="A139" s="2">
+        <v>45201</v>
       </c>
       <c r="B139">
-        <v>1.13352155195947</v>
+        <v>1.843996669263546</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="1">
-        <v>138</v>
+      <c r="A140" s="2">
+        <v>45202</v>
       </c>
       <c r="B140">
-        <v>1.904519602808431</v>
+        <v>2.029340234048473</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="1">
-        <v>139</v>
+      <c r="A141" s="2">
+        <v>45203</v>
       </c>
       <c r="B141">
-        <v>1.350503122136439</v>
+        <v>2.03119573687475</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="1">
-        <v>140</v>
+      <c r="A142" s="2">
+        <v>45204</v>
       </c>
       <c r="B142">
-        <v>1.897205992108268</v>
+        <v>2.662928702905023</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="1">
-        <v>141</v>
+      <c r="A143" s="2">
+        <v>45209</v>
       </c>
       <c r="B143">
-        <v>0.9578921279711775</v>
+        <v>1.696615924559634</v>
       </c>
       <c r="C143">
         <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="1">
-        <v>142</v>
+      <c r="A144" s="2">
+        <v>45213</v>
       </c>
       <c r="B144">
-        <v>1.052560941973719</v>
+        <v>1.45431323710221</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="1">
-        <v>143</v>
+      <c r="A145" s="2">
+        <v>45214</v>
       </c>
       <c r="B145">
-        <v>1.112085091058456</v>
+        <v>1.607416179605064</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="1">
-        <v>144</v>
+      <c r="A146" s="2">
+        <v>45215</v>
       </c>
       <c r="B146">
-        <v>1.13652206165087</v>
+        <v>1.841802481817578</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="1">
-        <v>145</v>
+      <c r="A147" s="2">
+        <v>45222</v>
       </c>
       <c r="B147">
-        <v>1.907520112499831</v>
+        <v>2.027146046602505</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="1">
-        <v>146</v>
+      <c r="A148" s="2">
+        <v>45223</v>
       </c>
       <c r="B148">
-        <v>1.353503631827839</v>
+        <v>2.029001549428782</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="1">
-        <v>147</v>
+      <c r="A149" s="2">
+        <v>45224</v>
       </c>
       <c r="B149">
-        <v>1.900206501799668</v>
+        <v>2.660734515459055</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="1">
-        <v>148</v>
+      <c r="A150" s="2">
+        <v>45227</v>
       </c>
       <c r="B150">
-        <v>0.960892637662578</v>
+        <v>1.694421737113667</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="1">
-        <v>149</v>
+      <c r="A151" s="2">
+        <v>45229</v>
       </c>
       <c r="B151">
-        <v>1.055561451665119</v>
+        <v>1.452119049656242</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="1">
-        <v>150</v>
+      <c r="A152" s="2">
+        <v>45230</v>
       </c>
       <c r="B152">
-        <v>1.115085600749856</v>
+        <v>1.605221992159096</v>
       </c>
       <c r="C152">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="1">
-        <v>151</v>
+      <c r="A153" s="2">
+        <v>45232</v>
       </c>
       <c r="B153">
-        <v>1.13952257134227</v>
+        <v>1.83960829437161</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="1">
-        <v>152</v>
+      <c r="A154" s="2">
+        <v>45233</v>
       </c>
       <c r="B154">
-        <v>1.910520622191231</v>
+        <v>2.024951859156537</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="1">
-        <v>153</v>
+      <c r="A155" s="2">
+        <v>45234</v>
       </c>
       <c r="B155">
-        <v>1.35650414151924</v>
+        <v>2.026807361982814</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="1">
-        <v>154</v>
+      <c r="A156" s="2">
+        <v>45235</v>
       </c>
       <c r="B156">
-        <v>1.903207011491069</v>
+        <v>2.658540328013087</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="1">
-        <v>155</v>
+      <c r="A157" s="2">
+        <v>45239</v>
       </c>
       <c r="B157">
-        <v>0.9638931473539784</v>
+        <v>1.692227549667699</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="1">
-        <v>156</v>
+      <c r="A158" s="2">
+        <v>45240</v>
       </c>
       <c r="B158">
-        <v>1.058561961356519</v>
+        <v>1.449924862210274</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="1">
-        <v>157</v>
+      <c r="A159" s="2">
+        <v>45241</v>
       </c>
       <c r="B159">
-        <v>1.118086110441256</v>
+        <v>1.603027804713128</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="1">
-        <v>158</v>
+      <c r="A160" s="2">
+        <v>45242</v>
       </c>
       <c r="B160">
-        <v>1.142523081033671</v>
+        <v>1.837414106925642</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="1">
-        <v>159</v>
+      <c r="A161" s="2">
+        <v>45243</v>
       </c>
       <c r="B161">
-        <v>1.913521131882632</v>
+        <v>2.022757671710569</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="1">
-        <v>160</v>
+      <c r="A162" s="2">
+        <v>45244</v>
       </c>
       <c r="B162">
-        <v>1.35950465121064</v>
+        <v>2.024613174536846</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="1">
-        <v>161</v>
+      <c r="A163" s="2">
+        <v>45247</v>
       </c>
       <c r="B163">
-        <v>1.906207521182469</v>
+        <v>2.656346140567119</v>
       </c>
       <c r="C163">
         <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="1">
-        <v>162</v>
+      <c r="A164" s="2">
+        <v>45248</v>
       </c>
       <c r="B164">
-        <v>0.9668936570453787</v>
+        <v>1.690033362221731</v>
       </c>
       <c r="C164">
         <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="1">
-        <v>163</v>
+      <c r="A165" s="2">
+        <v>45250</v>
       </c>
       <c r="B165">
-        <v>1.061562471047919</v>
+        <v>1.447730674764306</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="1">
-        <v>164</v>
+      <c r="A166" s="2">
+        <v>45254</v>
       </c>
       <c r="B166">
-        <v>1.121086620132657</v>
+        <v>1.60083361726716</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="1">
-        <v>165</v>
+      <c r="A167" s="2">
+        <v>45255</v>
       </c>
       <c r="B167">
-        <v>1.145523590725071</v>
+        <v>1.835219919479674</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="1">
-        <v>166</v>
+      <c r="A168" s="2">
+        <v>45257</v>
       </c>
       <c r="B168">
-        <v>1.916521641574032</v>
+        <v>2.020563484264601</v>
       </c>
       <c r="C168">
         <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="1">
-        <v>167</v>
+      <c r="A169" s="2">
+        <v>45259</v>
       </c>
       <c r="B169">
-        <v>1.36250516090204</v>
+        <v>2.022418987090878</v>
       </c>
       <c r="C169">
         <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="1">
-        <v>168</v>
+      <c r="A170" s="2">
+        <v>45261</v>
       </c>
       <c r="B170">
-        <v>1.90920803087387</v>
+        <v>2.654151953121151</v>
       </c>
       <c r="C170">
         <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="1">
-        <v>169</v>
+      <c r="A171" s="2">
+        <v>45262</v>
       </c>
       <c r="B171">
-        <v>0.9698941667367792</v>
+        <v>1.687839174775763</v>
       </c>
       <c r="C171">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="1">
-        <v>170</v>
+      <c r="A172" s="2">
+        <v>45263</v>
       </c>
       <c r="B172">
-        <v>1.06456298073932</v>
+        <v>1.445536487318338</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="1">
-        <v>171</v>
+      <c r="A173" s="2">
+        <v>45267</v>
       </c>
       <c r="B173">
-        <v>1.124087129824057</v>
+        <v>1.598639429821192</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="1">
-        <v>172</v>
+      <c r="A174" s="2">
+        <v>45271</v>
       </c>
       <c r="B174">
-        <v>1.148524100416471</v>
+        <v>1.833025732033706</v>
       </c>
       <c r="C174">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="1">
-        <v>173</v>
+      <c r="A175" s="2">
+        <v>45272</v>
       </c>
       <c r="B175">
-        <v>1.919522151265432</v>
+        <v>2.018369296818633</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="1">
-        <v>174</v>
+      <c r="A176" s="2">
+        <v>45273</v>
       </c>
       <c r="B176">
-        <v>1.365505670593441</v>
+        <v>2.020224799644911</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="1">
-        <v>175</v>
+      <c r="A177" s="2">
+        <v>45276</v>
       </c>
       <c r="B177">
-        <v>1.91220854056527</v>
+        <v>2.651957765675183</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="1">
-        <v>176</v>
+      <c r="A178" s="2">
+        <v>45277</v>
       </c>
       <c r="B178">
-        <v>0.9728946764281795</v>
+        <v>1.685644987329795</v>
       </c>
       <c r="C178">
         <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="1">
-        <v>177</v>
+      <c r="A179" s="2">
+        <v>45278</v>
       </c>
       <c r="B179">
-        <v>1.06756349043072</v>
+        <v>1.44334229987237</v>
       </c>
       <c r="C179">
         <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="1">
-        <v>178</v>
+      <c r="A180" s="2">
+        <v>45280</v>
       </c>
       <c r="B180">
-        <v>1.127087639515457</v>
+        <v>1.596445242375224</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="1">
-        <v>179</v>
+      <c r="A181" s="2">
+        <v>45282</v>
       </c>
       <c r="B181">
-        <v>1.151524610107872</v>
+        <v>1.830831544587739</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="1">
-        <v>180</v>
+      <c r="A182" s="2">
+        <v>45283</v>
       </c>
       <c r="B182">
-        <v>1.922522660956833</v>
+        <v>2.016175109372665</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="1">
-        <v>181</v>
+      <c r="A183" s="2">
+        <v>45287</v>
       </c>
       <c r="B183">
-        <v>1.368506180284841</v>
+        <v>2.018030612198942</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="1">
-        <v>182</v>
+      <c r="A184" s="2">
+        <v>45290</v>
       </c>
       <c r="B184">
-        <v>1.91520905025667</v>
+        <v>2.649763578229215</v>
       </c>
       <c r="C184">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="2">
+        <v>45291</v>
+      </c>
+      <c r="B185">
+        <v>1.683450799883827</v>
+      </c>
+      <c r="C185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="2">
+        <v>45294</v>
+      </c>
+      <c r="B186">
+        <v>1.441148112426403</v>
+      </c>
+      <c r="C186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="2">
+        <v>45295</v>
+      </c>
+      <c r="B187">
+        <v>1.594251054929256</v>
+      </c>
+      <c r="C187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="2">
+        <v>45298</v>
+      </c>
+      <c r="B188">
+        <v>1.82863735714177</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="2">
+        <v>45301</v>
+      </c>
+      <c r="B189">
+        <v>2.013980921926697</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="2">
+        <v>45302</v>
+      </c>
+      <c r="B190">
+        <v>2.015836424752974</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="2">
+        <v>45303</v>
+      </c>
+      <c r="B191">
+        <v>2.647569390783247</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="2">
+        <v>45304</v>
+      </c>
+      <c r="B192">
+        <v>1.681256612437859</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="2">
+        <v>45305</v>
+      </c>
+      <c r="B193">
+        <v>1.438953924980434</v>
+      </c>
+      <c r="C193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="2">
+        <v>45307</v>
+      </c>
+      <c r="B194">
+        <v>1.592056867483288</v>
+      </c>
+      <c r="C194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="2">
+        <v>45308</v>
+      </c>
+      <c r="B195">
+        <v>1.826443169695803</v>
+      </c>
+      <c r="C195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="2">
+        <v>45310</v>
+      </c>
+      <c r="B196">
+        <v>2.011786734480729</v>
+      </c>
+      <c r="C196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="2">
+        <v>45312</v>
+      </c>
+      <c r="B197">
+        <v>2.013642237307006</v>
+      </c>
+      <c r="C197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="2">
+        <v>45313</v>
+      </c>
+      <c r="B198">
+        <v>2.645375203337279</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="2">
+        <v>45318</v>
+      </c>
+      <c r="B199">
+        <v>1.679062424991891</v>
+      </c>
+      <c r="C199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="2">
+        <v>45322</v>
+      </c>
+      <c r="B200">
+        <v>1.436759737534467</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="2">
+        <v>45325</v>
+      </c>
+      <c r="B201">
+        <v>1.58986268003732</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="2">
+        <v>45326</v>
+      </c>
+      <c r="B202">
+        <v>1.824248982249834</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B203">
+        <v>2.009592547034761</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="2">
+        <v>45329</v>
+      </c>
+      <c r="B204">
+        <v>2.011448049861039</v>
+      </c>
+      <c r="C204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B205">
+        <v>2.643181015891311</v>
+      </c>
+      <c r="C205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="2">
+        <v>45331</v>
+      </c>
+      <c r="B206">
+        <v>1.676868237545923</v>
+      </c>
+      <c r="C206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="2">
+        <v>45332</v>
+      </c>
+      <c r="B207">
+        <v>1.434565550088498</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="2">
+        <v>45333</v>
+      </c>
+      <c r="B208">
+        <v>1.587668492591352</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="2">
+        <v>45339</v>
+      </c>
+      <c r="B209">
+        <v>1.822054794803867</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="2">
+        <v>45340</v>
+      </c>
+      <c r="B210">
+        <v>2.007398359588793</v>
+      </c>
+      <c r="C210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="2">
+        <v>45342</v>
+      </c>
+      <c r="B211">
+        <v>2.00925386241507</v>
+      </c>
+      <c r="C211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="2">
+        <v>45343</v>
+      </c>
+      <c r="B212">
+        <v>2.640986828445343</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="2">
+        <v>45347</v>
+      </c>
+      <c r="B213">
+        <v>1.674674050099955</v>
+      </c>
+      <c r="C213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="2">
+        <v>45350</v>
+      </c>
+      <c r="B214">
+        <v>1.432371362642531</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
